--- a/큰돌의 터전_틀린문제_복습양식.xlsx
+++ b/큰돌의 터전_틀린문제_복습양식.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunwoo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunwoo\source\repos\c++알고리즘\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0225E00-9B9A-48E8-9B35-C9D8EB47761D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB3AEC4-86B8-4335-95FE-4B17BE088CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4128" yWindow="1812" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>번호</t>
   </si>
@@ -56,6 +56,10 @@
   </si>
   <si>
     <t>수학숙제</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>교수가된 현우</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -449,11 +453,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -537,6 +541,17 @@
         <v>45895</v>
       </c>
     </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>3473</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3">
+        <v>45897</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/큰돌의 터전_틀린문제_복습양식.xlsx
+++ b/큰돌의 터전_틀린문제_복습양식.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunwoo\source\repos\c++알고리즘\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB3AEC4-86B8-4335-95FE-4B17BE088CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760E3B1E-A09F-4538-A1A0-D40D6224B5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4128" yWindow="1812" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>번호</t>
   </si>
@@ -60,6 +60,14 @@
   </si>
   <si>
     <t>교수가된 현우</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>치즈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -453,11 +461,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -552,6 +560,31 @@
         <v>45897</v>
       </c>
     </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>2636</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3">
+        <v>45901</v>
+      </c>
+      <c r="D7" s="3">
+        <v>45902</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>1068</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3">
+        <v>45901</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/큰돌의 터전_틀린문제_복습양식.xlsx
+++ b/큰돌의 터전_틀린문제_복습양식.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunwoo\source\repos\c++알고리즘\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760E3B1E-A09F-4538-A1A0-D40D6224B5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD4DF2C-DF89-4F94-905A-E6D1F49EBDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4128" yWindow="1812" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -465,7 +465,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -584,6 +584,9 @@
       <c r="C8" s="3">
         <v>45901</v>
       </c>
+      <c r="D8" s="3">
+        <v>45902</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/큰돌의 터전_틀린문제_복습양식.xlsx
+++ b/큰돌의 터전_틀린문제_복습양식.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunwoo\source\repos\c++알고리즘\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD4DF2C-DF89-4F94-905A-E6D1F49EBDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A066D9-1C97-4C5D-BD61-85C0A8E9774E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4128" yWindow="1812" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>번호</t>
   </si>
@@ -68,6 +68,10 @@
   </si>
   <si>
     <t>트리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>불</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -461,11 +465,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -588,6 +592,17 @@
         <v>45902</v>
       </c>
     </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>4179</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3">
+        <v>45903</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/큰돌의 터전_틀린문제_복습양식.xlsx
+++ b/큰돌의 터전_틀린문제_복습양식.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunwoo\source\repos\c++알고리즘\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A066D9-1C97-4C5D-BD61-85C0A8E9774E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6752EEE-866D-430F-9DA8-6B62A8DCD89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4128" yWindow="1812" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>번호</t>
   </si>
@@ -72,6 +72,18 @@
   </si>
   <si>
     <t>불</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>숨바꼭질 5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>괄호추가하기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>백조의 호수</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -465,11 +477,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -603,6 +615,39 @@
         <v>45903</v>
       </c>
     </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>17071</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3">
+        <v>45904</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>16637</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3">
+        <v>45904</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>3197</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3">
+        <v>45905</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/큰돌의 터전_틀린문제_복습양식.xlsx
+++ b/큰돌의 터전_틀린문제_복습양식.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunwoo\source\repos\c++알고리즘\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6752EEE-866D-430F-9DA8-6B62A8DCD89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B27366F-B4A3-423B-9316-15208DBEA656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4128" yWindow="1812" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>번호</t>
   </si>
@@ -84,6 +84,14 @@
   </si>
   <si>
     <t>백조의 호수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사다리조작</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃길</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -477,11 +485,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -648,6 +656,28 @@
         <v>45905</v>
       </c>
     </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>15684</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="3">
+        <v>45905</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>14620</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="3">
+        <v>45909</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/큰돌의 터전_틀린문제_복습양식.xlsx
+++ b/큰돌의 터전_틀린문제_복습양식.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunwoo\source\repos\c++알고리즘\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B27366F-B4A3-423B-9316-15208DBEA656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DF069B-45FF-45B6-AD67-DC4563CCEA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4128" yWindow="1812" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>번호</t>
   </si>
@@ -92,6 +92,10 @@
   </si>
   <si>
     <t>꽃길</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>알파벳(비트마스킹)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -485,11 +489,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -678,6 +682,17 @@
         <v>45909</v>
       </c>
     </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>1987</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="3">
+        <v>45910</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/큰돌의 터전_틀린문제_복습양식.xlsx
+++ b/큰돌의 터전_틀린문제_복습양식.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunwoo\source\repos\c++알고리즘\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DF069B-45FF-45B6-AD67-DC4563CCEA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2290561-4931-4E73-89D5-F5CFD5A1A03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4128" yWindow="1812" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>번호</t>
   </si>
@@ -96,6 +96,10 @@
   </si>
   <si>
     <t>알파벳(비트마스킹)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경사로</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -489,11 +493,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -693,6 +697,17 @@
         <v>45910</v>
       </c>
     </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>14890</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3">
+        <v>45910</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/큰돌의 터전_틀린문제_복습양식.xlsx
+++ b/큰돌의 터전_틀린문제_복습양식.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunwoo\source\repos\c++알고리즘\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2290561-4931-4E73-89D5-F5CFD5A1A03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE78895-ACD4-401B-949D-9A7BE2D7BE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4128" yWindow="1812" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>번호</t>
   </si>
@@ -100,6 +100,10 @@
   </si>
   <si>
     <t>경사로</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가르침</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -493,11 +497,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -708,6 +712,17 @@
         <v>45910</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>1062</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="3">
+        <v>45910</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/큰돌의 터전_틀린문제_복습양식.xlsx
+++ b/큰돌의 터전_틀린문제_복습양식.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hyunwoo\source\repos\c++알고리즘\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE78895-ACD4-401B-949D-9A7BE2D7BE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598E63D1-CD65-4889-85FA-3BB98DFA3FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4128" yWindow="1812" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>번호</t>
   </si>
@@ -104,6 +104,18 @@
   </si>
   <si>
     <t>가르침</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>성곽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리(트리의 특징 잘알기)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AC</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -497,11 +509,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -723,6 +735,39 @@
         <v>45910</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>2234</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="3">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>13244</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="3">
+        <v>45916</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>5430</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="3">
+        <v>45916</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
